--- a/earlywarning-pom/earlywarning-config/src/baf-instances/63_Inst_Analysis_Unit_ISBA.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/63_Inst_Analysis_Unit_ISBA.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="284">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -896,12 +896,18 @@
   </si>
   <si>
     <t>COUNTERPARTY_ISBA_IND_209</t>
+  </si>
+  <si>
+    <t>ISBA_EXPOSURE</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_ISBA_ISBA_EXPOSURE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1017,7 +1023,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvPr id="1026" name="_xssf_cell_comment" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1065,7 +1077,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2050" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvPr id="2050" name="_xssf_cell_comment" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1108,7 +1126,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvPr id="2" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1156,7 +1180,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvPr id="3" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1204,7 +1234,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvPr id="4" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1599,10 +1635,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F127"/>
+  <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G113" sqref="G113"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E141" sqref="E141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3766,6 +3802,23 @@
       </c>
       <c r="F127" s="5" t="s">
         <v>271</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>20</v>
+      </c>
+      <c r="B128" t="s">
+        <v>283</v>
+      </c>
+      <c r="C128" t="s">
+        <v>283</v>
+      </c>
+      <c r="E128" t="s">
+        <v>27</v>
+      </c>
+      <c r="F128" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/63_Inst_Analysis_Unit_ISBA.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/63_Inst_Analysis_Unit_ISBA.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="282">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -130,9 +130,6 @@
     <t>CustomerInfoFormula</t>
   </si>
   <si>
-    <t>EXPOSURE</t>
-  </si>
-  <si>
     <t>COUNTERPARTY_ISBA</t>
   </si>
   <si>
@@ -167,9 +164,6 @@
   </si>
   <si>
     <t>ISBA_SEGMENT</t>
-  </si>
-  <si>
-    <t>COUNTERPARTY_ISBA_EXPOSURE</t>
   </si>
   <si>
     <t>COUNTERPARTY_ISBA_IND_1</t>
@@ -908,17 +902,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -973,25 +960,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Variable" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1605,25 +1589,25 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>30</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>31</v>
-      </c>
-      <c r="I3" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1635,10 +1619,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F128"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E141" sqref="E141"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1684,16 +1668,16 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -1701,16 +1685,16 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -1718,33 +1702,33 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="3" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1758,9 +1742,9 @@
         <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1775,9 +1759,9 @@
         <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1792,9 +1776,9 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1809,9 +1793,9 @@
         <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1826,9 +1810,9 @@
         <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1843,9 +1827,9 @@
         <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1860,9 +1844,9 @@
         <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1877,9 +1861,9 @@
         <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1894,9 +1878,9 @@
         <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1911,9 +1895,9 @@
         <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1928,9 +1912,9 @@
         <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1945,9 +1929,9 @@
         <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1962,9 +1946,9 @@
         <v>64</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1979,9 +1963,9 @@
         <v>66</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1996,9 +1980,9 @@
         <v>68</v>
       </c>
       <c r="E21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2013,9 +1997,9 @@
         <v>70</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2030,9 +2014,9 @@
         <v>72</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2047,9 +2031,9 @@
         <v>74</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2064,9 +2048,9 @@
         <v>76</v>
       </c>
       <c r="E25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2081,9 +2065,9 @@
         <v>78</v>
       </c>
       <c r="E26" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2098,9 +2082,9 @@
         <v>80</v>
       </c>
       <c r="E27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2115,9 +2099,9 @@
         <v>82</v>
       </c>
       <c r="E28" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2132,9 +2116,9 @@
         <v>84</v>
       </c>
       <c r="E29" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2149,9 +2133,9 @@
         <v>86</v>
       </c>
       <c r="E30" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2166,9 +2150,9 @@
         <v>88</v>
       </c>
       <c r="E31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2183,9 +2167,9 @@
         <v>90</v>
       </c>
       <c r="E32" t="s">
-        <v>27</v>
-      </c>
-      <c r="F32" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2200,9 +2184,9 @@
         <v>92</v>
       </c>
       <c r="E33" t="s">
-        <v>27</v>
-      </c>
-      <c r="F33" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2217,9 +2201,9 @@
         <v>94</v>
       </c>
       <c r="E34" t="s">
-        <v>27</v>
-      </c>
-      <c r="F34" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2234,9 +2218,9 @@
         <v>96</v>
       </c>
       <c r="E35" t="s">
-        <v>27</v>
-      </c>
-      <c r="F35" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2251,9 +2235,9 @@
         <v>98</v>
       </c>
       <c r="E36" t="s">
-        <v>27</v>
-      </c>
-      <c r="F36" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2268,9 +2252,9 @@
         <v>100</v>
       </c>
       <c r="E37" t="s">
-        <v>27</v>
-      </c>
-      <c r="F37" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2285,9 +2269,9 @@
         <v>102</v>
       </c>
       <c r="E38" t="s">
-        <v>27</v>
-      </c>
-      <c r="F38" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2302,9 +2286,9 @@
         <v>104</v>
       </c>
       <c r="E39" t="s">
-        <v>27</v>
-      </c>
-      <c r="F39" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2319,9 +2303,9 @@
         <v>106</v>
       </c>
       <c r="E40" t="s">
-        <v>27</v>
-      </c>
-      <c r="F40" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2336,9 +2320,9 @@
         <v>108</v>
       </c>
       <c r="E41" t="s">
-        <v>27</v>
-      </c>
-      <c r="F41" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2353,9 +2337,9 @@
         <v>110</v>
       </c>
       <c r="E42" t="s">
-        <v>27</v>
-      </c>
-      <c r="F42" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2370,9 +2354,9 @@
         <v>112</v>
       </c>
       <c r="E43" t="s">
-        <v>27</v>
-      </c>
-      <c r="F43" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2387,9 +2371,9 @@
         <v>114</v>
       </c>
       <c r="E44" t="s">
-        <v>27</v>
-      </c>
-      <c r="F44" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2404,9 +2388,9 @@
         <v>116</v>
       </c>
       <c r="E45" t="s">
-        <v>27</v>
-      </c>
-      <c r="F45" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2421,9 +2405,9 @@
         <v>118</v>
       </c>
       <c r="E46" t="s">
-        <v>27</v>
-      </c>
-      <c r="F46" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2438,9 +2422,9 @@
         <v>120</v>
       </c>
       <c r="E47" t="s">
-        <v>27</v>
-      </c>
-      <c r="F47" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2455,9 +2439,9 @@
         <v>122</v>
       </c>
       <c r="E48" t="s">
-        <v>27</v>
-      </c>
-      <c r="F48" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2472,9 +2456,9 @@
         <v>124</v>
       </c>
       <c r="E49" t="s">
-        <v>27</v>
-      </c>
-      <c r="F49" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2489,9 +2473,9 @@
         <v>126</v>
       </c>
       <c r="E50" t="s">
-        <v>27</v>
-      </c>
-      <c r="F50" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2506,9 +2490,9 @@
         <v>128</v>
       </c>
       <c r="E51" t="s">
-        <v>27</v>
-      </c>
-      <c r="F51" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2523,9 +2507,9 @@
         <v>130</v>
       </c>
       <c r="E52" t="s">
-        <v>27</v>
-      </c>
-      <c r="F52" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52" s="4" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2540,9 +2524,9 @@
         <v>132</v>
       </c>
       <c r="E53" t="s">
-        <v>27</v>
-      </c>
-      <c r="F53" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F53" s="4" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2557,9 +2541,9 @@
         <v>134</v>
       </c>
       <c r="E54" t="s">
-        <v>27</v>
-      </c>
-      <c r="F54" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" s="4" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2574,9 +2558,9 @@
         <v>136</v>
       </c>
       <c r="E55" t="s">
-        <v>27</v>
-      </c>
-      <c r="F55" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F55" s="4" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2591,9 +2575,9 @@
         <v>138</v>
       </c>
       <c r="E56" t="s">
-        <v>27</v>
-      </c>
-      <c r="F56" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F56" s="4" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2608,9 +2592,9 @@
         <v>140</v>
       </c>
       <c r="E57" t="s">
-        <v>27</v>
-      </c>
-      <c r="F57" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F57" s="4" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2625,9 +2609,9 @@
         <v>142</v>
       </c>
       <c r="E58" t="s">
-        <v>27</v>
-      </c>
-      <c r="F58" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2642,9 +2626,9 @@
         <v>144</v>
       </c>
       <c r="E59" t="s">
-        <v>27</v>
-      </c>
-      <c r="F59" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2659,9 +2643,9 @@
         <v>146</v>
       </c>
       <c r="E60" t="s">
-        <v>27</v>
-      </c>
-      <c r="F60" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F60" s="4" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2676,9 +2660,9 @@
         <v>148</v>
       </c>
       <c r="E61" t="s">
-        <v>27</v>
-      </c>
-      <c r="F61" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F61" s="4" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2693,9 +2677,9 @@
         <v>150</v>
       </c>
       <c r="E62" t="s">
-        <v>27</v>
-      </c>
-      <c r="F62" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F62" s="4" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2710,9 +2694,9 @@
         <v>152</v>
       </c>
       <c r="E63" t="s">
-        <v>27</v>
-      </c>
-      <c r="F63" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F63" s="4" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2727,9 +2711,9 @@
         <v>154</v>
       </c>
       <c r="E64" t="s">
-        <v>27</v>
-      </c>
-      <c r="F64" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F64" s="4" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2744,9 +2728,9 @@
         <v>156</v>
       </c>
       <c r="E65" t="s">
-        <v>27</v>
-      </c>
-      <c r="F65" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F65" s="4" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2761,9 +2745,9 @@
         <v>158</v>
       </c>
       <c r="E66" t="s">
-        <v>27</v>
-      </c>
-      <c r="F66" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F66" s="4" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2778,9 +2762,9 @@
         <v>160</v>
       </c>
       <c r="E67" t="s">
-        <v>27</v>
-      </c>
-      <c r="F67" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F67" s="4" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2795,9 +2779,9 @@
         <v>162</v>
       </c>
       <c r="E68" t="s">
-        <v>27</v>
-      </c>
-      <c r="F68" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F68" s="4" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2812,9 +2796,9 @@
         <v>164</v>
       </c>
       <c r="E69" t="s">
-        <v>27</v>
-      </c>
-      <c r="F69" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F69" s="4" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2829,9 +2813,9 @@
         <v>166</v>
       </c>
       <c r="E70" t="s">
-        <v>27</v>
-      </c>
-      <c r="F70" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F70" s="4" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2846,9 +2830,9 @@
         <v>168</v>
       </c>
       <c r="E71" t="s">
-        <v>27</v>
-      </c>
-      <c r="F71" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F71" s="4" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2863,9 +2847,9 @@
         <v>170</v>
       </c>
       <c r="E72" t="s">
-        <v>27</v>
-      </c>
-      <c r="F72" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F72" s="4" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2880,9 +2864,9 @@
         <v>172</v>
       </c>
       <c r="E73" t="s">
-        <v>27</v>
-      </c>
-      <c r="F73" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F73" s="4" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2897,9 +2881,9 @@
         <v>174</v>
       </c>
       <c r="E74" t="s">
-        <v>27</v>
-      </c>
-      <c r="F74" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F74" s="4" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2914,9 +2898,9 @@
         <v>176</v>
       </c>
       <c r="E75" t="s">
-        <v>27</v>
-      </c>
-      <c r="F75" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F75" s="4" t="s">
         <v>177</v>
       </c>
     </row>
@@ -2931,9 +2915,9 @@
         <v>178</v>
       </c>
       <c r="E76" t="s">
-        <v>27</v>
-      </c>
-      <c r="F76" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F76" s="4" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2948,9 +2932,9 @@
         <v>180</v>
       </c>
       <c r="E77" t="s">
-        <v>27</v>
-      </c>
-      <c r="F77" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F77" s="4" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2965,9 +2949,9 @@
         <v>182</v>
       </c>
       <c r="E78" t="s">
-        <v>27</v>
-      </c>
-      <c r="F78" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F78" s="4" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2982,9 +2966,9 @@
         <v>184</v>
       </c>
       <c r="E79" t="s">
-        <v>27</v>
-      </c>
-      <c r="F79" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F79" s="4" t="s">
         <v>185</v>
       </c>
     </row>
@@ -2999,9 +2983,9 @@
         <v>186</v>
       </c>
       <c r="E80" t="s">
-        <v>27</v>
-      </c>
-      <c r="F80" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F80" s="4" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3016,9 +3000,9 @@
         <v>188</v>
       </c>
       <c r="E81" t="s">
-        <v>27</v>
-      </c>
-      <c r="F81" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F81" s="4" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3033,9 +3017,9 @@
         <v>190</v>
       </c>
       <c r="E82" t="s">
-        <v>27</v>
-      </c>
-      <c r="F82" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F82" s="4" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3050,9 +3034,9 @@
         <v>192</v>
       </c>
       <c r="E83" t="s">
-        <v>27</v>
-      </c>
-      <c r="F83" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F83" s="4" t="s">
         <v>193</v>
       </c>
     </row>
@@ -3067,9 +3051,9 @@
         <v>194</v>
       </c>
       <c r="E84" t="s">
-        <v>27</v>
-      </c>
-      <c r="F84" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F84" s="4" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3084,9 +3068,9 @@
         <v>196</v>
       </c>
       <c r="E85" t="s">
-        <v>27</v>
-      </c>
-      <c r="F85" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F85" s="4" t="s">
         <v>197</v>
       </c>
     </row>
@@ -3101,9 +3085,9 @@
         <v>198</v>
       </c>
       <c r="E86" t="s">
-        <v>27</v>
-      </c>
-      <c r="F86" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F86" s="4" t="s">
         <v>199</v>
       </c>
     </row>
@@ -3118,9 +3102,9 @@
         <v>200</v>
       </c>
       <c r="E87" t="s">
-        <v>27</v>
-      </c>
-      <c r="F87" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F87" s="4" t="s">
         <v>201</v>
       </c>
     </row>
@@ -3135,9 +3119,9 @@
         <v>202</v>
       </c>
       <c r="E88" t="s">
-        <v>27</v>
-      </c>
-      <c r="F88" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F88" s="4" t="s">
         <v>203</v>
       </c>
     </row>
@@ -3152,9 +3136,9 @@
         <v>204</v>
       </c>
       <c r="E89" t="s">
-        <v>27</v>
-      </c>
-      <c r="F89" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F89" s="4" t="s">
         <v>205</v>
       </c>
     </row>
@@ -3169,9 +3153,9 @@
         <v>206</v>
       </c>
       <c r="E90" t="s">
-        <v>27</v>
-      </c>
-      <c r="F90" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F90" s="4" t="s">
         <v>207</v>
       </c>
     </row>
@@ -3186,9 +3170,9 @@
         <v>208</v>
       </c>
       <c r="E91" t="s">
-        <v>27</v>
-      </c>
-      <c r="F91" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F91" s="4" t="s">
         <v>209</v>
       </c>
     </row>
@@ -3203,9 +3187,9 @@
         <v>210</v>
       </c>
       <c r="E92" t="s">
-        <v>27</v>
-      </c>
-      <c r="F92" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F92" s="4" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3220,9 +3204,9 @@
         <v>212</v>
       </c>
       <c r="E93" t="s">
-        <v>27</v>
-      </c>
-      <c r="F93" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F93" s="4" t="s">
         <v>213</v>
       </c>
     </row>
@@ -3237,9 +3221,9 @@
         <v>214</v>
       </c>
       <c r="E94" t="s">
-        <v>27</v>
-      </c>
-      <c r="F94" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F94" s="4" t="s">
         <v>215</v>
       </c>
     </row>
@@ -3254,9 +3238,9 @@
         <v>216</v>
       </c>
       <c r="E95" t="s">
-        <v>27</v>
-      </c>
-      <c r="F95" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F95" s="4" t="s">
         <v>217</v>
       </c>
     </row>
@@ -3271,9 +3255,9 @@
         <v>218</v>
       </c>
       <c r="E96" t="s">
-        <v>27</v>
-      </c>
-      <c r="F96" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F96" s="4" t="s">
         <v>219</v>
       </c>
     </row>
@@ -3288,9 +3272,9 @@
         <v>220</v>
       </c>
       <c r="E97" t="s">
-        <v>27</v>
-      </c>
-      <c r="F97" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F97" s="4" t="s">
         <v>221</v>
       </c>
     </row>
@@ -3299,16 +3283,16 @@
         <v>20</v>
       </c>
       <c r="B98" t="s">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="C98" t="s">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="E98" t="s">
-        <v>27</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>223</v>
+        <v>26</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3316,16 +3300,16 @@
         <v>20</v>
       </c>
       <c r="B99" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="C99" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="E99" t="s">
-        <v>27</v>
-      </c>
-      <c r="F99" s="5" t="s">
-        <v>272</v>
+        <v>26</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3339,9 +3323,9 @@
         <v>224</v>
       </c>
       <c r="E100" t="s">
-        <v>27</v>
-      </c>
-      <c r="F100" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F100" s="4" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3356,9 +3340,9 @@
         <v>226</v>
       </c>
       <c r="E101" t="s">
-        <v>27</v>
-      </c>
-      <c r="F101" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F101" s="4" t="s">
         <v>227</v>
       </c>
     </row>
@@ -3373,9 +3357,9 @@
         <v>228</v>
       </c>
       <c r="E102" t="s">
-        <v>27</v>
-      </c>
-      <c r="F102" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F102" s="4" t="s">
         <v>229</v>
       </c>
     </row>
@@ -3384,16 +3368,16 @@
         <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>230</v>
+        <v>276</v>
       </c>
       <c r="C103" t="s">
-        <v>230</v>
+        <v>276</v>
       </c>
       <c r="E103" t="s">
-        <v>27</v>
-      </c>
-      <c r="F103" s="5" t="s">
-        <v>231</v>
+        <v>26</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3401,16 +3385,16 @@
         <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>278</v>
+        <v>230</v>
       </c>
       <c r="C104" t="s">
-        <v>278</v>
+        <v>230</v>
       </c>
       <c r="E104" t="s">
-        <v>27</v>
-      </c>
-      <c r="F104" s="5" t="s">
-        <v>273</v>
+        <v>26</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3424,9 +3408,9 @@
         <v>232</v>
       </c>
       <c r="E105" t="s">
-        <v>27</v>
-      </c>
-      <c r="F105" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F105" s="4" t="s">
         <v>233</v>
       </c>
     </row>
@@ -3441,9 +3425,9 @@
         <v>234</v>
       </c>
       <c r="E106" t="s">
-        <v>27</v>
-      </c>
-      <c r="F106" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F106" s="4" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3458,9 +3442,9 @@
         <v>236</v>
       </c>
       <c r="E107" t="s">
-        <v>27</v>
-      </c>
-      <c r="F107" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F107" s="4" t="s">
         <v>237</v>
       </c>
     </row>
@@ -3475,9 +3459,9 @@
         <v>238</v>
       </c>
       <c r="E108" t="s">
-        <v>27</v>
-      </c>
-      <c r="F108" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F108" s="4" t="s">
         <v>239</v>
       </c>
     </row>
@@ -3492,9 +3476,9 @@
         <v>240</v>
       </c>
       <c r="E109" t="s">
-        <v>27</v>
-      </c>
-      <c r="F109" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F109" s="4" t="s">
         <v>241</v>
       </c>
     </row>
@@ -3503,16 +3487,16 @@
         <v>20</v>
       </c>
       <c r="B110" t="s">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="C110" t="s">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="E110" t="s">
-        <v>27</v>
-      </c>
-      <c r="F110" s="5" t="s">
-        <v>243</v>
+        <v>26</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3520,16 +3504,16 @@
         <v>20</v>
       </c>
       <c r="B111" t="s">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="C111" t="s">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="E111" t="s">
-        <v>27</v>
-      </c>
-      <c r="F111" s="5" t="s">
-        <v>274</v>
+        <v>26</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3537,16 +3521,16 @@
         <v>20</v>
       </c>
       <c r="B112" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="C112" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="E112" t="s">
-        <v>27</v>
-      </c>
-      <c r="F112" s="5" t="s">
-        <v>245</v>
+        <v>26</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3554,16 +3538,16 @@
         <v>20</v>
       </c>
       <c r="B113" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C113" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E113" t="s">
-        <v>27</v>
-      </c>
-      <c r="F113" s="5" t="s">
-        <v>275</v>
+        <v>26</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3571,16 +3555,16 @@
         <v>20</v>
       </c>
       <c r="B114" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
       <c r="C114" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
       <c r="E114" t="s">
-        <v>27</v>
-      </c>
-      <c r="F114" s="5" t="s">
-        <v>276</v>
+        <v>26</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3594,9 +3578,9 @@
         <v>246</v>
       </c>
       <c r="E115" t="s">
-        <v>27</v>
-      </c>
-      <c r="F115" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F115" s="4" t="s">
         <v>247</v>
       </c>
     </row>
@@ -3611,9 +3595,9 @@
         <v>248</v>
       </c>
       <c r="E116" t="s">
-        <v>27</v>
-      </c>
-      <c r="F116" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F116" s="4" t="s">
         <v>249</v>
       </c>
     </row>
@@ -3628,9 +3612,9 @@
         <v>250</v>
       </c>
       <c r="E117" t="s">
-        <v>27</v>
-      </c>
-      <c r="F117" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F117" s="4" t="s">
         <v>251</v>
       </c>
     </row>
@@ -3645,9 +3629,9 @@
         <v>252</v>
       </c>
       <c r="E118" t="s">
-        <v>27</v>
-      </c>
-      <c r="F118" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F118" s="4" t="s">
         <v>253</v>
       </c>
     </row>
@@ -3662,9 +3646,9 @@
         <v>254</v>
       </c>
       <c r="E119" t="s">
-        <v>27</v>
-      </c>
-      <c r="F119" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F119" s="4" t="s">
         <v>255</v>
       </c>
     </row>
@@ -3679,9 +3663,9 @@
         <v>256</v>
       </c>
       <c r="E120" t="s">
-        <v>27</v>
-      </c>
-      <c r="F120" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F120" s="4" t="s">
         <v>257</v>
       </c>
     </row>
@@ -3696,9 +3680,9 @@
         <v>258</v>
       </c>
       <c r="E121" t="s">
-        <v>27</v>
-      </c>
-      <c r="F121" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F121" s="4" t="s">
         <v>259</v>
       </c>
     </row>
@@ -3713,9 +3697,9 @@
         <v>260</v>
       </c>
       <c r="E122" t="s">
-        <v>27</v>
-      </c>
-      <c r="F122" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F122" s="4" t="s">
         <v>261</v>
       </c>
     </row>
@@ -3730,9 +3714,9 @@
         <v>262</v>
       </c>
       <c r="E123" t="s">
-        <v>27</v>
-      </c>
-      <c r="F123" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F123" s="4" t="s">
         <v>263</v>
       </c>
     </row>
@@ -3747,9 +3731,9 @@
         <v>264</v>
       </c>
       <c r="E124" t="s">
-        <v>27</v>
-      </c>
-      <c r="F124" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F124" s="4" t="s">
         <v>265</v>
       </c>
     </row>
@@ -3764,9 +3748,9 @@
         <v>266</v>
       </c>
       <c r="E125" t="s">
-        <v>27</v>
-      </c>
-      <c r="F125" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F125" s="4" t="s">
         <v>267</v>
       </c>
     </row>
@@ -3781,9 +3765,9 @@
         <v>268</v>
       </c>
       <c r="E126" t="s">
-        <v>27</v>
-      </c>
-      <c r="F126" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F126" s="4" t="s">
         <v>269</v>
       </c>
     </row>
@@ -3792,33 +3776,16 @@
         <v>20</v>
       </c>
       <c r="B127" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="C127" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="E127" t="s">
-        <v>27</v>
-      </c>
-      <c r="F127" s="5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>20</v>
-      </c>
-      <c r="B128" t="s">
-        <v>283</v>
-      </c>
-      <c r="C128" t="s">
-        <v>283</v>
-      </c>
-      <c r="E128" t="s">
-        <v>27</v>
-      </c>
-      <c r="F128" t="s">
-        <v>282</v>
+        <v>26</v>
+      </c>
+      <c r="F127" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
